--- a/biology/Zoologie/L'Appel_de_la_forêt_(téléfilm,_1976)/L'Appel_de_la_forêt_(téléfilm,_1976).xlsx
+++ b/biology/Zoologie/L'Appel_de_la_forêt_(téléfilm,_1976)/L'Appel_de_la_forêt_(téléfilm,_1976).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(t%C3%A9l%C3%A9film,_1976)</t>
+          <t>L'Appel_de_la_forêt_(téléfilm,_1976)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Appel de la forêt (The Call of the Wild) est un téléfilm américain tiré du roman de Jack London, L'Appel de la forêt, et diffusé le 22 mai 1976 sur le réseau NBC.
-Le téléfilm, mettant en vedette John Beck, a été réalisé par Jerry Jameson à partir d'un script écrit par le poète et romancier James Dickey. Étant une des nombreuses adaptations du roman de London, cette version a été produite après le succès, en 1972, du film Délivrance, une adaptation du roman de Dickey du même titre[1].
+Le téléfilm, mettant en vedette John Beck, a été réalisé par Jerry Jameson à partir d'un script écrit par le poète et romancier James Dickey. Étant une des nombreuses adaptations du roman de London, cette version a été produite après le succès, en 1972, du film Délivrance, une adaptation du roman de Dickey du même titre.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(t%C3%A9l%C3%A9film,_1976)</t>
+          <t>L'Appel_de_la_forêt_(téléfilm,_1976)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(t%C3%A9l%C3%A9film,_1976)</t>
+          <t>L'Appel_de_la_forêt_(téléfilm,_1976)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Jerry Jameson
 Scripteur : James Dickey et Jack London</t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Appel_de_la_for%C3%AAt_(t%C3%A9l%C3%A9film,_1976)</t>
+          <t>L'Appel_de_la_forêt_(téléfilm,_1976)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>John Beck : John Thornton
 Jim Bohan : Dog Trainer
